--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_chara.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_chara.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="chara" sheetId="1" r:id="rId3"/>
+    <sheet name="chara" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">(You talk to yourself)</t>
   </si>
   <si>
+    <t xml:space="preserve">(당신은 스스로에게 말을 걸었다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">end</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t xml:space="preserve">Join us! (#2)</t>
   </si>
   <si>
+    <t xml:space="preserve">받아들인다 (#2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4-2</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t xml:space="preserve">Join us! #1</t>
   </si>
   <si>
+    <t xml:space="preserve">받아들인다 #1</t>
+  </si>
+  <si>
     <t xml:space="preserve">bye</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t xml:space="preserve">Please leave.</t>
   </si>
   <si>
+    <t xml:space="preserve">다시 생각한다</t>
+  </si>
+  <si>
     <t xml:space="preserve">$hired</t>
   </si>
   <si>
@@ -172,6 +184,9 @@
     <t xml:space="preserve">I will call #1 now.</t>
   </si>
   <si>
+    <t xml:space="preserve">#1씨를 부르겠습니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">wait</t>
   </si>
   <si>
@@ -187,6 +202,9 @@
     <t xml:space="preserve">(#self is asleep)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 자고 있다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strain</t>
   </si>
   <si>
@@ -196,6 +214,9 @@
     <t xml:space="preserve">Save me!</t>
   </si>
   <si>
+    <t xml:space="preserve">살려 {줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">invisible</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t xml:space="preserve">(#self gives a weird stare into thin air)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 이상하다는 듯 허공을 쳐다봤다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">bout_win</t>
   </si>
   <si>
@@ -214,12 +238,18 @@
     <t xml:space="preserve">I yield! You are good.</t>
   </si>
   <si>
+    <t xml:space="preserve">졌{어}! {네가} 이겼{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">勝利の記念にこれを受け取ってくれ。</t>
   </si>
   <si>
     <t xml:space="preserve">Accept this as a commemoration of your victory.</t>
   </si>
   <si>
+    <t xml:space="preserve">승리 기념으로 이걸 받아 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">bout_lose</t>
   </si>
   <si>
@@ -229,6 +259,9 @@
     <t xml:space="preserve">That's it, weakling.</t>
   </si>
   <si>
+    <t xml:space="preserve">여기까지{다}. 준비 운동 수준도 안 되{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">quest_success</t>
   </si>
   <si>
@@ -238,6 +271,9 @@
     <t xml:space="preserve">I didn't expect you to return alive! Go ahead, claim your promised reward.</t>
   </si>
   <si>
+    <t xml:space="preserve">설마 살아 돌아올 줄은 몰랐{어}! 자, 약속했던 보수를 받아{줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">quest_fail</t>
   </si>
   <si>
@@ -247,6 +283,9 @@
     <t xml:space="preserve">I knew the job was too much for you. How disappointing.</t>
   </si>
   <si>
+    <t xml:space="preserve">{YOU}한테는 너무 어려웠나 보{네}. 유감{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">escort</t>
   </si>
   <si>
@@ -256,6 +295,9 @@
     <t xml:space="preserve">Escort me safely to my destination. </t>
   </si>
   <si>
+    <t xml:space="preserve">목적지까지 무사히 호위해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">party</t>
   </si>
   <si>
@@ -265,6 +307,9 @@
     <t xml:space="preserve">(#self is too pumped up at the party.)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 파티에 열광하고 있다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">encounter_mob</t>
   </si>
   <si>
@@ -274,6 +319,9 @@
     <t xml:space="preserve">Give me #1, or your life is forfeit!</t>
   </si>
   <si>
+    <t xml:space="preserve">살고 싶으면 얌전히 #1을(를) {넘겨}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">mob_fight</t>
   </si>
   <si>
@@ -283,6 +331,9 @@
     <t xml:space="preserve">Try me.</t>
   </si>
   <si>
+    <t xml:space="preserve">뺏어 보든지</t>
+  </si>
+  <si>
     <t xml:space="preserve">mob_give</t>
   </si>
   <si>
@@ -292,6 +343,9 @@
     <t xml:space="preserve">I surrender. (Lose: #2)</t>
   </si>
   <si>
+    <t xml:space="preserve">항복할게 (#2을(를) 넘긴다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">refAction1</t>
   </si>
   <si>
@@ -301,67 +355,10 @@
     <t xml:space="preserve">A wise choice.</t>
   </si>
   <si>
+    <t xml:space="preserve">현명한 판단{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">refAction2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(당신은 스스로에게 말을 걸었다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">받아들인다 (#2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">받아들인다 #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다시 생각한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1씨를 부르겠습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 자고 있다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">살려 {줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 이상하다는 듯 허공을 쳐다봤다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">졌{어}! {네가} 이겼{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">승리 기념으로 이걸 받아 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여기까지{다}. 준비 운동 수준도 안 되{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">설마 살아 돌아올 줄은 몰랐{어}! 자, 약속했던 보수를 받아{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{YOU}한테는 너무 어려웠나 보{네}. 유감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">목적지까지 무사히 호위해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 파티에 열광하고 있다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">살고 싶으면 얌전히 #1을(를) {넘겨}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뺏어 보든지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항복할게 (#2을(를) 넘긴다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현명한 판단{이다}.</t>
   </si>
 </sst>
 </file>
@@ -382,20 +379,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,7 +429,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -441,54 +438,54 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -669,31 +666,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K123" sqref="K123"/>
-      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K49" activeCellId="0" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.14" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.84" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.84" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.84" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.27" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="42.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.27"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,28 +725,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
-      <c r="H2" s="1">
-        <f>MAX(H4:H1048576)</f>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="1" t="n">
+        <f aca="false">MAX(H4:H1048576)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="12.8">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="12.8">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="12.8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="12.8">
+    <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -765,45 +762,48 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" ht="12.8">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="12.8">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" ht="12.8">
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" ht="12.8">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="12.8">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" ht="12.8">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="12.8">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="12.8">
+    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -819,8 +819,8 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" ht="12.8">
-      <c r="H25" s="1">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -829,26 +829,26 @@
       <c r="J25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
+      <c r="K25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="12.8">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="12.8">
+    <row r="29" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -862,27 +862,30 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" ht="12.8">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" ht="12.8">
+      <c r="K30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" ht="12.8">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="12.8">
+    <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -896,547 +899,556 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="37" ht="12.8">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>29</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="1">
+        <v>32</v>
+      </c>
+      <c r="H39" s="1" t="n">
         <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="H40" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>39</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="1">
+        <v>32</v>
+      </c>
+      <c r="H41" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>43</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" ht="12.8">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" ht="12.8">
-      <c r="D46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
-      <c r="I49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" ht="12.8">
-      <c r="D50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" ht="12.8">
-      <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
-      <c r="A54" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
-      <c r="H61" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K61" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K109" s="0" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" ht="12.8">
-      <c r="D62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
-      <c r="B63" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" ht="12.8">
-      <c r="A65" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" ht="12.8">
-      <c r="H66" s="1">
-        <v>5</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66" t="s">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" ht="12.8">
-      <c r="B67" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
-      <c r="A69" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
-      <c r="H70" s="1">
-        <v>6</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="D111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" ht="12.8">
-      <c r="B71" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" ht="12.8">
-      <c r="A73" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
-      <c r="H74" s="1">
-        <v>7</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="J111" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" ht="12.8">
-      <c r="B75" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" ht="12.8">
-      <c r="A78" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" ht="12.8">
-      <c r="H79" s="1">
-        <v>8</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="K111" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" ht="12.8">
-      <c r="H80" s="1">
-        <v>10</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K80" t="s">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="81" ht="12.8">
-      <c r="D81" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" ht="12.8">
-      <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" ht="12.8">
-      <c r="A84" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" ht="12.8">
-      <c r="H85" s="1">
-        <v>9</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="D112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="86" ht="12.8">
-      <c r="D86" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" ht="12.8">
-      <c r="B87" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" ht="12.8">
-      <c r="A90" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" ht="12.8">
-      <c r="H91" s="1">
-        <v>11</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="J112" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="92" ht="12.8">
-      <c r="B92" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" ht="12.8">
-      <c r="A94" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" ht="12.8">
-      <c r="H95" s="1">
-        <v>12</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="K112" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" ht="12.8">
-      <c r="B96" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" ht="12.8">
-      <c r="A99" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" ht="12.8">
-      <c r="H100" s="1">
-        <v>13</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K100" t="s">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J115" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="101" ht="12.8">
-      <c r="B101" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" ht="12.8">
-      <c r="A103" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104" ht="12.8">
-      <c r="H104" s="1">
-        <v>14</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K104" t="s">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H123" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="105" ht="12.8">
-      <c r="B105" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" ht="12.8">
-      <c r="A108" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" ht="12.8">
-      <c r="H109" s="1">
-        <v>16</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K109" t="s">
+      <c r="J123" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" ht="12.8">
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" ht="12.8">
-      <c r="B111" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H111" s="1">
-        <v>17</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K111" t="s">
+      <c r="K123" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" ht="12.8">
-      <c r="B112" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" s="1">
-        <v>18</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K112" t="s">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" ht="12.8">
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" ht="12.8">
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" ht="12.8">
-      <c r="J115" s="4"/>
-    </row>
-    <row r="117" ht="12.8">
-      <c r="A117" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" ht="12.8">
-      <c r="D119" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" ht="12.8">
-      <c r="B120" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" ht="12.8">
-      <c r="A122" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" ht="12.8">
-      <c r="H123" s="1">
-        <v>19</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K123" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" ht="12.8">
-      <c r="D124" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" ht="12.8">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_chara.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_chara.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="chara" sheetId="1" r:id="rId3"/>
+    <sheet name="chara" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">(You talk to yourself)</t>
   </si>
   <si>
+    <t xml:space="preserve">(당신은 스스로에게 말을 걸었다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">end</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t xml:space="preserve">Join us! (#2)</t>
   </si>
   <si>
+    <t xml:space="preserve">받아들인다 (#2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4-2</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t xml:space="preserve">Join us! #1</t>
   </si>
   <si>
+    <t xml:space="preserve">받아들인다 #1</t>
+  </si>
+  <si>
     <t xml:space="preserve">bye</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t xml:space="preserve">Please leave.</t>
   </si>
   <si>
+    <t xml:space="preserve">다시 생각한다</t>
+  </si>
+  <si>
     <t xml:space="preserve">$hired</t>
   </si>
   <si>
@@ -172,6 +184,9 @@
     <t xml:space="preserve">I will call #1 now.</t>
   </si>
   <si>
+    <t xml:space="preserve">#1씨를 부르겠습니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">wait</t>
   </si>
   <si>
@@ -187,6 +202,9 @@
     <t xml:space="preserve">(#self is asleep)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 자고 있다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strain</t>
   </si>
   <si>
@@ -196,6 +214,9 @@
     <t xml:space="preserve">Save me!</t>
   </si>
   <si>
+    <t xml:space="preserve">살려 {줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">invisible</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t xml:space="preserve">(#self gives a weird stare into thin air)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 이상하다는 듯 허공을 쳐다봤다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">bout_win</t>
   </si>
   <si>
@@ -214,12 +238,18 @@
     <t xml:space="preserve">I yield! You are good.</t>
   </si>
   <si>
+    <t xml:space="preserve">졌{어}! {네가} 이겼{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">勝利の記念にこれを受け取ってくれ。</t>
   </si>
   <si>
     <t xml:space="preserve">Accept this as a commemoration of your victory.</t>
   </si>
   <si>
+    <t xml:space="preserve">승리 기념으로 이걸 받아 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">bout_lose</t>
   </si>
   <si>
@@ -229,6 +259,9 @@
     <t xml:space="preserve">That's it, weakling.</t>
   </si>
   <si>
+    <t xml:space="preserve">여기까지{다}. 준비 운동 수준도 안 되{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">quest_success</t>
   </si>
   <si>
@@ -238,6 +271,9 @@
     <t xml:space="preserve">I didn't expect you to return alive! Go ahead, claim your promised reward.</t>
   </si>
   <si>
+    <t xml:space="preserve">설마 살아 돌아올 줄은 몰랐{어}! 자, 약속했던 보수를 받아{줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">quest_fail</t>
   </si>
   <si>
@@ -247,6 +283,9 @@
     <t xml:space="preserve">I knew the job was too much for you. How disappointing.</t>
   </si>
   <si>
+    <t xml:space="preserve">{YOU}한테는 너무 어려웠나 보{네}. 유감{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">escort</t>
   </si>
   <si>
@@ -256,6 +295,9 @@
     <t xml:space="preserve">Escort me safely to my destination. </t>
   </si>
   <si>
+    <t xml:space="preserve">목적지까지 무사히 호위해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">party</t>
   </si>
   <si>
@@ -265,6 +307,9 @@
     <t xml:space="preserve">(#self is too pumped up at the party.)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 파티에 열광하고 있다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">encounter_mob</t>
   </si>
   <si>
@@ -274,6 +319,9 @@
     <t xml:space="preserve">Give me #1, or your life is forfeit!</t>
   </si>
   <si>
+    <t xml:space="preserve">살고 싶으면 얌전히 #1을(를) {넘겨}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">mob_fight</t>
   </si>
   <si>
@@ -283,6 +331,9 @@
     <t xml:space="preserve">Try me.</t>
   </si>
   <si>
+    <t xml:space="preserve">뺏어 보든지</t>
+  </si>
+  <si>
     <t xml:space="preserve">mob_give</t>
   </si>
   <si>
@@ -292,6 +343,9 @@
     <t xml:space="preserve">I surrender. (Lose: #2)</t>
   </si>
   <si>
+    <t xml:space="preserve">항복할게 (#2을(를) 넘긴다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">refAction1</t>
   </si>
   <si>
@@ -301,67 +355,22 @@
     <t xml:space="preserve">A wise choice.</t>
   </si>
   <si>
+    <t xml:space="preserve">현명한 판단{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">refAction2</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(당신은 스스로에게 말을 걸었다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">받아들인다 (#2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">받아들인다 #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다시 생각한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1씨를 부르겠습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 자고 있다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">살려 {줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 이상하다는 듯 허공을 쳐다봤다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">졌{어}! {네가} 이겼{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">승리 기념으로 이걸 받아 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여기까지{다}. 준비 운동 수준도 안 되{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">설마 살아 돌아올 줄은 몰랐{어}! 자, 약속했던 보수를 받아{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{YOU}한테는 너무 어려웠나 보{네}. 유감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">목적지까지 무사히 호위해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 파티에 열광하고 있다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">살고 싶으면 얌전히 #1을(를) {넘겨}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뺏어 보든지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항복할게 (#2을(를) 넘긴다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현명한 판단{이다}.</t>
+    <t xml:space="preserve">give_card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これを受け取って{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want you to have this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이걸 받아 {줘}.</t>
   </si>
 </sst>
 </file>
@@ -382,20 +391,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,7 +441,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -441,54 +450,54 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -669,31 +678,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K123" sqref="K123"/>
-      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J135" activeCellId="0" sqref="J135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.14" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.84" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.84" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.84" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.27" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="42.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.27"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,28 +737,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
-      <c r="H2" s="1">
-        <f>MAX(H4:H1048576)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="1" t="n">
+        <f aca="false">MAX(H4:H1048576)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="12.8">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="12.8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="12.8">
+    <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -765,45 +774,48 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" ht="12.8">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="12.8">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" ht="12.8">
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" ht="12.8">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="12.8">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" ht="12.8">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="12.8">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="12.8">
+    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -819,8 +831,8 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" ht="12.8">
-      <c r="H25" s="1">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -829,26 +841,26 @@
       <c r="J25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
+      <c r="K25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="12.8">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="12.8">
+    <row r="29" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -862,27 +874,30 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" ht="12.8">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" ht="12.8">
+      <c r="K30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" ht="12.8">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="12.8">
+    <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -896,547 +911,577 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="37" ht="12.8">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="1">
+        <v>32</v>
+      </c>
+      <c r="H39" s="1" t="n">
         <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="H40" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>39</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="1">
+        <v>32</v>
+      </c>
+      <c r="H41" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>43</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" ht="12.8">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" ht="12.8">
-      <c r="D46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
-      <c r="I49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" ht="12.8">
-      <c r="D50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" ht="12.8">
-      <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
-      <c r="A54" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
-      <c r="H61" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K61" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K109" s="0" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" ht="12.8">
-      <c r="D62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
-      <c r="B63" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" ht="12.8">
-      <c r="A65" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" ht="12.8">
-      <c r="H66" s="1">
-        <v>5</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66" t="s">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" ht="12.8">
-      <c r="B67" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
-      <c r="A69" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
-      <c r="H70" s="1">
-        <v>6</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="D111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" ht="12.8">
-      <c r="B71" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" ht="12.8">
-      <c r="A73" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
-      <c r="H74" s="1">
-        <v>7</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="J111" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" ht="12.8">
-      <c r="B75" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" ht="12.8">
-      <c r="A78" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" ht="12.8">
-      <c r="H79" s="1">
-        <v>8</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="K111" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" ht="12.8">
-      <c r="H80" s="1">
-        <v>10</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K80" t="s">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="81" ht="12.8">
-      <c r="D81" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" ht="12.8">
-      <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" ht="12.8">
-      <c r="A84" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" ht="12.8">
-      <c r="H85" s="1">
-        <v>9</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="D112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="86" ht="12.8">
-      <c r="D86" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" ht="12.8">
-      <c r="B87" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" ht="12.8">
-      <c r="A90" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" ht="12.8">
-      <c r="H91" s="1">
-        <v>11</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="J112" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="92" ht="12.8">
-      <c r="B92" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" ht="12.8">
-      <c r="A94" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" ht="12.8">
-      <c r="H95" s="1">
-        <v>12</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="K112" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" ht="12.8">
-      <c r="B96" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" ht="12.8">
-      <c r="A99" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" ht="12.8">
-      <c r="H100" s="1">
-        <v>13</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K100" t="s">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J115" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="101" ht="12.8">
-      <c r="B101" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" ht="12.8">
-      <c r="A103" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104" ht="12.8">
-      <c r="H104" s="1">
-        <v>14</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K104" t="s">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H123" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="105" ht="12.8">
-      <c r="B105" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" ht="12.8">
-      <c r="A108" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" ht="12.8">
-      <c r="H109" s="1">
-        <v>16</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K109" t="s">
+      <c r="J123" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" ht="12.8">
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" ht="12.8">
-      <c r="B111" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H111" s="1">
-        <v>17</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K111" t="s">
+      <c r="K123" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" ht="12.8">
-      <c r="B112" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" s="1">
-        <v>18</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K112" t="s">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" ht="12.8">
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" ht="12.8">
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" ht="12.8">
-      <c r="J115" s="4"/>
-    </row>
-    <row r="117" ht="12.8">
-      <c r="A117" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" ht="12.8">
-      <c r="D119" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" ht="12.8">
-      <c r="B120" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" ht="12.8">
-      <c r="A122" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" ht="12.8">
-      <c r="H123" s="1">
-        <v>19</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K123" t="s">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="124" ht="12.8">
-      <c r="D124" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" ht="12.8">
-      <c r="B126" s="1" t="s">
-        <v>25</v>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_chara.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_chara.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="chara" sheetId="1" r:id="rId3"/>
+    <sheet name="chara" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="121">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">(You talk to yourself)</t>
   </si>
   <si>
+    <t xml:space="preserve">(당신은 스스로에게 말을 걸었다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">end</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t xml:space="preserve">Join us! (#2)</t>
   </si>
   <si>
+    <t xml:space="preserve">받아들인다 (#2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4-2</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t xml:space="preserve">Join us! #1</t>
   </si>
   <si>
+    <t xml:space="preserve">받아들인다 #1</t>
+  </si>
+  <si>
     <t xml:space="preserve">bye</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t xml:space="preserve">Please leave.</t>
   </si>
   <si>
+    <t xml:space="preserve">다시 생각한다</t>
+  </si>
+  <si>
     <t xml:space="preserve">$hired</t>
   </si>
   <si>
@@ -172,6 +184,9 @@
     <t xml:space="preserve">I will call #1 now.</t>
   </si>
   <si>
+    <t xml:space="preserve">#1씨를 부르겠습니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">wait</t>
   </si>
   <si>
@@ -187,6 +202,9 @@
     <t xml:space="preserve">(#self is asleep)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 자고 있다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strain</t>
   </si>
   <si>
@@ -196,6 +214,9 @@
     <t xml:space="preserve">Save me!</t>
   </si>
   <si>
+    <t xml:space="preserve">살려 {줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">invisible</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t xml:space="preserve">(#self gives a weird stare into thin air)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 이상하다는 듯 허공을 쳐다봤다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">bout_win</t>
   </si>
   <si>
@@ -214,12 +238,18 @@
     <t xml:space="preserve">I yield! You are good.</t>
   </si>
   <si>
+    <t xml:space="preserve">졌{어}! {네가} 이겼{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">勝利の記念にこれを受け取ってくれ。</t>
   </si>
   <si>
     <t xml:space="preserve">Accept this as a commemoration of your victory.</t>
   </si>
   <si>
+    <t xml:space="preserve">승리 기념으로 이걸 받아 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">bout_lose</t>
   </si>
   <si>
@@ -229,6 +259,9 @@
     <t xml:space="preserve">That's it, weakling.</t>
   </si>
   <si>
+    <t xml:space="preserve">여기까지{다}. 준비 운동 수준도 안 되{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">quest_success</t>
   </si>
   <si>
@@ -238,6 +271,9 @@
     <t xml:space="preserve">I didn't expect you to return alive! Go ahead, claim your promised reward.</t>
   </si>
   <si>
+    <t xml:space="preserve">설마 살아 돌아올 줄은 몰랐{어}! 자, 약속했던 보수를 받아{줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">quest_fail</t>
   </si>
   <si>
@@ -247,6 +283,9 @@
     <t xml:space="preserve">I knew the job was too much for you. How disappointing.</t>
   </si>
   <si>
+    <t xml:space="preserve">{YOU}한테는 너무 어려웠나 보{네}. 유감{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">escort</t>
   </si>
   <si>
@@ -256,6 +295,9 @@
     <t xml:space="preserve">Escort me safely to my destination. </t>
   </si>
   <si>
+    <t xml:space="preserve">목적지까지 무사히 호위해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">party</t>
   </si>
   <si>
@@ -265,6 +307,9 @@
     <t xml:space="preserve">(#self is too pumped up at the party.)</t>
   </si>
   <si>
+    <t xml:space="preserve">(#self은(는) 파티에 열광하고 있다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">encounter_mob</t>
   </si>
   <si>
@@ -274,6 +319,9 @@
     <t xml:space="preserve">Give me #1, or your life is forfeit!</t>
   </si>
   <si>
+    <t xml:space="preserve">살고 싶으면 얌전히 #1을(를) {넘겨}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">mob_fight</t>
   </si>
   <si>
@@ -283,6 +331,9 @@
     <t xml:space="preserve">Try me.</t>
   </si>
   <si>
+    <t xml:space="preserve">뺏어 보든지</t>
+  </si>
+  <si>
     <t xml:space="preserve">mob_give</t>
   </si>
   <si>
@@ -292,6 +343,9 @@
     <t xml:space="preserve">I surrender. (Lose: #2)</t>
   </si>
   <si>
+    <t xml:space="preserve">항복할게 (#2을(를) 넘긴다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">refAction1</t>
   </si>
   <si>
@@ -301,6 +355,9 @@
     <t xml:space="preserve">A wise choice.</t>
   </si>
   <si>
+    <t xml:space="preserve">현명한 판단{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">refAction2</t>
   </si>
   <si>
@@ -313,67 +370,19 @@
     <t xml:space="preserve">I want you to have this.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(당신은 스스로에게 말을 걸었다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">받아들인다 (#2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">받아들인다 #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다시 생각한다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1씨를 부르겠습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 자고 있다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">살려 {줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 이상하다는 듯 허공을 쳐다봤다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">졌{어}! {네가} 이겼{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">승리 기념으로 이걸 받아 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여기까지{다}. 준비 운동 수준도 안 되{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">설마 살아 돌아올 줄은 몰랐{어}! 자, 약속했던 보수를 받아{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{YOU}한테는 너무 어려웠나 보{네}. 유감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">목적지까지 무사히 호위해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#self은(는) 파티에 열광하고 있다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">살고 싶으면 얌전히 #1을(를) {넘겨}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뺏어 보든지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">항복할게 (#2을(를) 넘긴다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현명한 판단{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">이걸 받아 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give_lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こんなものを作ってみたの{だが}、良かったら食べて{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made this... care to try?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 걸 좀 만들어 봤는데, 생각 나면 {먹어}.</t>
   </si>
 </sst>
 </file>
@@ -394,20 +403,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -444,7 +453,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -453,54 +462,54 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -681,31 +690,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K129" sqref="K129"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K135" activeCellId="0" sqref="K135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.14" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.84" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.84" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.84" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.27" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="61.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="53.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,28 +750,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
-      <c r="H2" s="1">
-        <f>MAX(H4:H1048576)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="1" t="n">
+        <f aca="false">MAX(H4:H1048576)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="12.8">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="12.8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="12.8">
+    <row r="11" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -777,12 +787,12 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" ht="12.8">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="12.8">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
@@ -790,32 +800,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="12.8">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" ht="12.8">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="12.8">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" ht="12.8">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="12.8">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="12.8">
+    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -831,8 +841,8 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" ht="12.8">
-      <c r="H25" s="1">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -841,26 +851,26 @@
       <c r="J25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
+      <c r="K25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="12.8">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="12.8">
+    <row r="29" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -874,7 +884,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" ht="12.8">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I30" s="1" t="s">
         <v>16</v>
       </c>
@@ -882,19 +892,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="12.8">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" ht="12.8">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="12.8">
+    <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -908,571 +918,595 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="37" ht="12.8">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="1">
+        <v>32</v>
+      </c>
+      <c r="H39" s="1" t="n">
         <v>15</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="H40" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>39</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="1">
+        <v>32</v>
+      </c>
+      <c r="H41" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>43</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" ht="12.8">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" ht="12.8">
-      <c r="D46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
-      <c r="B47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
-      <c r="I49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" ht="12.8">
-      <c r="D50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" ht="12.8">
-      <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
-      <c r="A54" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
-      <c r="H61" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="1" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K61" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" ht="12.8">
-      <c r="D62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
-      <c r="B63" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" ht="12.8">
-      <c r="A65" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" ht="12.8">
-      <c r="H66" s="1">
-        <v>5</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="K111" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" ht="12.8">
-      <c r="B67" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
-      <c r="A69" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
-      <c r="H70" s="1">
-        <v>6</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" t="s">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="71" ht="12.8">
-      <c r="B71" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" ht="12.8">
-      <c r="A73" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
-      <c r="H74" s="1">
-        <v>7</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="D112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="75" ht="12.8">
-      <c r="B75" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" ht="12.8">
-      <c r="A78" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" ht="12.8">
-      <c r="H79" s="1">
-        <v>8</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="J112" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="80" ht="12.8">
-      <c r="H80" s="1">
-        <v>10</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="K112" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="81" ht="12.8">
-      <c r="D81" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" ht="12.8">
-      <c r="B82" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" ht="12.8">
-      <c r="A84" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" ht="12.8">
-      <c r="H85" s="1">
-        <v>9</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K85" t="s">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J115" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="86" ht="12.8">
-      <c r="D86" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" ht="12.8">
-      <c r="B87" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" ht="12.8">
-      <c r="A90" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" ht="12.8">
-      <c r="H91" s="1">
-        <v>11</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K91" t="s">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H123" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="92" ht="12.8">
-      <c r="B92" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" ht="12.8">
-      <c r="A94" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" ht="12.8">
-      <c r="H95" s="1">
-        <v>12</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="J123" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="96" ht="12.8">
-      <c r="B96" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" ht="12.8">
-      <c r="A99" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" ht="12.8">
-      <c r="H100" s="1">
-        <v>13</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K100" t="s">
+      <c r="K123" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" ht="12.8">
-      <c r="B101" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" ht="12.8">
-      <c r="A103" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="104" ht="12.8">
-      <c r="H104" s="1">
-        <v>14</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K104" t="s">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="105" ht="12.8">
-      <c r="B105" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" ht="12.8">
-      <c r="A108" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" ht="12.8">
-      <c r="H109" s="1">
-        <v>16</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K109" t="s">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" ht="12.8">
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" ht="12.8">
-      <c r="B111" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H111" s="1">
-        <v>17</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K111" t="s">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="112" ht="12.8">
-      <c r="B112" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" s="1">
-        <v>18</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K112" t="s">
+      <c r="J129" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" ht="12.8">
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" ht="12.8">
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" ht="12.8">
-      <c r="J115" s="4"/>
-    </row>
-    <row r="117" ht="12.8">
-      <c r="A117" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" ht="12.8">
-      <c r="D119" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" ht="12.8">
-      <c r="B120" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" ht="12.8">
-      <c r="A122" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" ht="12.8">
-      <c r="H123" s="1">
-        <v>19</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K123" t="s">
+      <c r="K129" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" ht="12.8">
-      <c r="D124" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" ht="12.8">
-      <c r="B126" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" ht="12.8">
-      <c r="A128" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="129" ht="12.8">
-      <c r="H129" s="1">
-        <v>20</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K129" t="s">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="130" ht="12.8">
-      <c r="B130" s="1" t="s">
-        <v>25</v>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
